--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\WURI - UGP\Mosip\v1.2\Master-data_Mosip1.2._FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{653659A7-6A93-4ABF-B1D9-24FB02CD9841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C2805-6999-4EBA-8082-A604A5C65128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -123,9 +123,6 @@
     <t>Guinée</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>(GTM+00:00)</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Immeuble Yansané</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,37 +527,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -642,22 +642,22 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>27</v>
       </c>
       <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C2805-6999-4EBA-8082-A604A5C65128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9055CC21-616C-481C-8AB4-49DF388C1621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>lang_code</t>
   </si>
@@ -126,9 +126,6 @@
     <t>(GTM+00:00)</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
     <t>9.5065745</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>GN</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,22 +642,22 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9055CC21-616C-481C-8AB4-49DF388C1621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C1B5F-02FA-42EF-9F69-4F89F239F063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>lang_code</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Immeuble Yansané</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>GN</t>
@@ -527,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,10 +684,10 @@
         <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C1B5F-02FA-42EF-9F69-4F89F239F063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AAE5F7-E4A8-414B-AEDD-D0CB77D33D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>lang_code</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>GN</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +657,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -686,8 +689,8 @@
       <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
-        <v>37</v>
+      <c r="V2">
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AAE5F7-E4A8-414B-AEDD-D0CB77D33D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6C62-85C8-4BC4-8B81-23F83122EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>lang_code</t>
   </si>
@@ -96,70 +96,70 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
-    <t>0:15:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
     <t>Centre Conakry</t>
   </si>
   <si>
-    <t>Guinée</t>
-  </si>
-  <si>
     <t>(GTM+00:00)</t>
   </si>
   <si>
-    <t>9.5065745</t>
-  </si>
-  <si>
-    <t>-13.7093656</t>
-  </si>
-  <si>
     <t>4e Avenue, Kaloum</t>
   </si>
   <si>
-    <t>Immeuble Yansané</t>
-  </si>
-  <si>
     <t>GN</t>
   </si>
   <si>
-    <t>1</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>Immeuble YansanÃ©</t>
+  </si>
+  <si>
+    <t>GuinÃ©e</t>
+  </si>
+  <si>
+    <t>620 02 03 06</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -171,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -179,38 +179,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,175 +505,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="22.90625" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="18" width="16.36328125" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="16.54296875" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H2">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N2" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>45117.647677222223</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
         <v>38</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -1,153 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6C62-85C8-4BC4-8B81-23F83122EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC73E473-ECE1-421E-959B-091089CCB6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20312F25-25FD-4A87-8E6C-4E473230F1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cntrtyp_code</t>
+  </si>
+  <si>
+    <t>addr_line1</t>
+  </si>
+  <si>
+    <t>addr_line2</t>
+  </si>
+  <si>
+    <t>addr_line3</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>number_of_kiosks</t>
+  </si>
+  <si>
+    <t>working_hours</t>
+  </si>
+  <si>
+    <t>per_kiosk_process_time</t>
+  </si>
+  <si>
+    <t>center_start_time</t>
+  </si>
+  <si>
+    <t>center_end_time</t>
+  </si>
+  <si>
+    <t>lunch_start_time</t>
+  </si>
+  <si>
+    <t>lunch_end_time</t>
+  </si>
+  <si>
+    <t>time_zone</t>
+  </si>
+  <si>
+    <t>holiday_loc_code</t>
+  </si>
+  <si>
+    <t>zone_code</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cntrtyp_code</t>
-  </si>
-  <si>
-    <t>addr_line1</t>
-  </si>
-  <si>
-    <t>addr_line2</t>
-  </si>
-  <si>
-    <t>addr_line3</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>location_code</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>contact_person</t>
-  </si>
-  <si>
-    <t>number_of_kiosks</t>
-  </si>
-  <si>
-    <t>working_hours</t>
-  </si>
-  <si>
-    <t>per_kiosk_process_time</t>
-  </si>
-  <si>
-    <t>center_start_time</t>
-  </si>
-  <si>
-    <t>center_end_time</t>
-  </si>
-  <si>
-    <t>lunch_start_time</t>
-  </si>
-  <si>
-    <t>lunch_end_time</t>
-  </si>
-  <si>
-    <t>time_zone</t>
-  </si>
-  <si>
-    <t>holiday_loc_code</t>
-  </si>
-  <si>
-    <t>zone_code</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>Centre Conakry</t>
+  </si>
+  <si>
     <t>REG</t>
   </si>
   <si>
+    <t>Immeuble YansanÃƒÂ©</t>
+  </si>
+  <si>
+    <t>4e Avenue Kaloum</t>
+  </si>
+  <si>
+    <t>GuinÃƒÂ©e</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>620 02 03 06</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>(GTM+00:00)</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
     <t>fra</t>
   </si>
   <si>
-    <t>Centre Conakry</t>
-  </si>
-  <si>
-    <t>(GTM+00:00)</t>
-  </si>
-  <si>
-    <t>4e Avenue, Kaloum</t>
-  </si>
-  <si>
-    <t>GN</t>
-  </si>
-  <si>
-    <t>cr_by</t>
-  </si>
-  <si>
-    <t>cr_dtimes</t>
-  </si>
-  <si>
-    <t>upd_by</t>
-  </si>
-  <si>
-    <t>upd_dtimes</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>del_dtimes</t>
-  </si>
-  <si>
-    <t>Immeuble YansanÃ©</t>
-  </si>
-  <si>
-    <t>GuinÃ©e</t>
-  </si>
-  <si>
-    <t>620 02 03 06</t>
+    <t>chithara27</t>
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>superadmin</t>
-  </si>
-  <si>
-    <t>globaladmin</t>
   </si>
 </sst>
 </file>
@@ -157,10 +160,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,12 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -504,126 +503,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B569C-4D5D-47EF-AE71-C889459E8817}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" customWidth="1"/>
-    <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
       </c>
       <c r="W1" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -631,19 +606,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>9.5065744999999993</v>
@@ -651,72 +626,71 @@
       <c r="H2">
         <v>-13.7093656</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="M2" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N2" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W2" t="b">
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>45079.578327557872</v>
+        <v>40</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45225.188347152776</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>45117.647677222223</v>
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>